--- a/medicine/Soins infirmiers et profession infirmière/École_centrale_des_sciences_médicales_et_de_la_santé/École_centrale_des_sciences_médicales_et_de_la_santé.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/École_centrale_des_sciences_médicales_et_de_la_santé/École_centrale_des_sciences_médicales_et_de_la_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_centrale_des_sciences_m%C3%A9dicales_et_de_la_sant%C3%A9</t>
+          <t>École_centrale_des_sciences_médicales_et_de_la_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’École centrale des sciences médicales et de la santé ou Centrale santé est une école d'études supérieures tunisienne spécialisée dans le domaine de la santé et du paramédical. Elle est issue d'une réorganisation de l'Université centrale.
-Ayant le statut d'établissement privé d'enseignement et de recherche, elle est placée sous la tutelle du ministère de l'Enseignement supérieur et de la Recherche scientifique[1].
+Ayant le statut d'établissement privé d'enseignement et de recherche, elle est placée sous la tutelle du ministère de l'Enseignement supérieur et de la Recherche scientifique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_centrale_des_sciences_m%C3%A9dicales_et_de_la_sant%C3%A9</t>
+          <t>École_centrale_des_sciences_médicales_et_de_la_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les élèves peuvent y obtenir des diplômes de techniciens supérieurs en santé[2].
-Centrale santé organise aussi des journées[3] et des congrès[4] nationaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les élèves peuvent y obtenir des diplômes de techniciens supérieurs en santé.
+Centrale santé organise aussi des journées et des congrès nationaux.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_centrale_des_sciences_m%C3%A9dicales_et_de_la_sant%C3%A9</t>
+          <t>École_centrale_des_sciences_médicales_et_de_la_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Diplômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'école est habilitée par le ministère à délivrer les diplômes pour les techniciens supérieurs dans le domaine paramédical :
 </t>
